--- a/datamining/clustering/cluster_analysis.xlsx
+++ b/datamining/clustering/cluster_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>clus_3</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>safety issue</t>
+  </si>
+  <si>
+    <t>clusnum</t>
+  </si>
+  <si>
+    <t>conditions</t>
   </si>
 </sst>
 </file>
@@ -704,7 +710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -714,6 +722,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
         <v>78</v>
       </c>
@@ -722,6 +733,9 @@
       </c>
       <c r="E1" t="s">
         <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -763,7 +777,7 @@
         <v>3532</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:F40" si="0">C3/$B3</f>
+        <f>C3/$B3</f>
         <v>8.966515193826001E-2</v>
       </c>
       <c r="E3">
@@ -771,7 +785,7 @@
         <v>6528</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="0"/>
+        <f>E3/$B3</f>
         <v>0.16572313472620651</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -790,7 +804,7 @@
         <v>2857</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>C4/$B4</f>
         <v>7.7572631007330986E-2</v>
       </c>
       <c r="E4">
@@ -798,7 +812,7 @@
         <v>5569</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f>E4/$B4</f>
         <v>0.1512082541406462</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -817,7 +831,7 @@
         <v>2798</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>C5/$B5</f>
         <v>8.4335533652831779E-2</v>
       </c>
       <c r="E5">
@@ -825,7 +839,7 @@
         <v>5973</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>E5/$B5</f>
         <v>0.18003436115381138</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -844,7 +858,7 @@
         <v>2456</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>C6/$B6</f>
         <v>7.8406333801557912E-2</v>
       </c>
       <c r="E6">
@@ -852,7 +866,7 @@
         <v>4978</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f>E6/$B6</f>
         <v>0.15891967820201763</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -871,7 +885,7 @@
         <v>2845</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>C7/$B7</f>
         <v>9.3508627773212824E-2</v>
       </c>
       <c r="E7">
@@ -879,7 +893,7 @@
         <v>5213</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f>E7/$B7</f>
         <v>0.17133935907970418</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -898,7 +912,7 @@
         <v>2825</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f>C8/$B8</f>
         <v>9.8295059151009043E-2</v>
       </c>
       <c r="E8">
@@ -906,7 +920,7 @@
         <v>4995</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f>E8/$B8</f>
         <v>0.17379958246346555</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -925,7 +939,7 @@
         <v>1822</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>C9/$B9</f>
         <v>6.8762501415254557E-2</v>
       </c>
       <c r="E9">
@@ -933,7 +947,7 @@
         <v>3530</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f>E9/$B9</f>
         <v>0.13322262897686529</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -952,7 +966,7 @@
         <v>2387</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>C10/$B10</f>
         <v>0.1002435746682345</v>
       </c>
       <c r="E10">
@@ -960,7 +974,7 @@
         <v>4104</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f>E10/$B10</f>
         <v>0.17235007559213841</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -979,7 +993,7 @@
         <v>1245</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f>C11/$B11</f>
         <v>6.5831218274111675E-2</v>
       </c>
       <c r="E11">
@@ -987,7 +1001,7 @@
         <v>2446</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f>E11/$B11</f>
         <v>0.12933587140439931</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1006,7 +1020,7 @@
         <v>1386</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f>C12/$B12</f>
         <v>7.6145478518844081E-2</v>
       </c>
       <c r="E12">
@@ -1014,7 +1028,7 @@
         <v>2822</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f>E12/$B12</f>
         <v>0.15503790792220634</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1033,7 +1047,7 @@
         <v>1354</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f>C13/$B13</f>
         <v>7.8094359210981665E-2</v>
       </c>
       <c r="E13">
@@ -1041,7 +1055,7 @@
         <v>2792</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f>E13/$B13</f>
         <v>0.16103356788556927</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1060,7 +1074,7 @@
         <v>1168</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f>C14/$B14</f>
         <v>7.5432704727460609E-2</v>
       </c>
       <c r="E14">
@@ -1068,7 +1082,7 @@
         <v>2280</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f>E14/$B14</f>
         <v>0.14724877292689229</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1087,7 +1101,7 @@
         <v>748</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f>C15/$B15</f>
         <v>6.248433714810793E-2</v>
       </c>
       <c r="E15">
@@ -1095,7 +1109,7 @@
         <v>1902</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f>E15/$B15</f>
         <v>0.15888396959318352</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1114,7 +1128,7 @@
         <v>758</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f>C16/$B16</f>
         <v>7.5686470294558161E-2</v>
       </c>
       <c r="E16">
@@ -1122,7 +1136,7 @@
         <v>1410</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f>E16/$B16</f>
         <v>0.14078881677483773</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1141,7 +1155,7 @@
         <v>863</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f>C17/$B17</f>
         <v>8.6490278612948487E-2</v>
       </c>
       <c r="E17">
@@ -1149,7 +1163,7 @@
         <v>1737</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f>E17/$B17</f>
         <v>0.1740829825616356</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1168,7 +1182,7 @@
         <v>922</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f>C18/$B18</f>
         <v>9.6131790219997917E-2</v>
       </c>
       <c r="E18">
@@ -1176,7 +1190,7 @@
         <v>1677</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f>E18/$B18</f>
         <v>0.17485142320925867</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1195,7 +1209,7 @@
         <v>822</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f>C19/$B19</f>
         <v>8.8951412184828479E-2</v>
       </c>
       <c r="E19">
@@ -1203,7 +1217,7 @@
         <v>1583</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f>E19/$B19</f>
         <v>0.17130180716372687</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1222,7 +1236,7 @@
         <v>451</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f>C20/$B20</f>
         <v>5.4866180048661797E-2</v>
       </c>
       <c r="E20">
@@ -1230,7 +1244,7 @@
         <v>827</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f>E20/$B20</f>
         <v>0.10060827250608273</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1249,7 +1263,7 @@
         <v>493</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f>C21/$B21</f>
         <v>7.3659046765277153E-2</v>
       </c>
       <c r="E21">
@@ -1257,7 +1271,7 @@
         <v>982</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f>E21/$B21</f>
         <v>0.14672045420588675</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -1276,7 +1290,7 @@
         <v>431</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f>C22/$B22</f>
         <v>7.0447858777378233E-2</v>
       </c>
       <c r="E22">
@@ -1284,7 +1298,7 @@
         <v>1245</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f>E22/$B22</f>
         <v>0.20349787512258907</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1303,7 +1317,7 @@
         <v>425</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f>C23/$B23</f>
         <v>7.6042225800679902E-2</v>
       </c>
       <c r="E23">
@@ -1311,7 +1325,7 @@
         <v>861</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f>E23/$B23</f>
         <v>0.15405260332796564</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -1330,7 +1344,7 @@
         <v>323</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f>C24/$B24</f>
         <v>6.5292096219931275E-2</v>
       </c>
       <c r="E24">
@@ -1338,7 +1352,7 @@
         <v>774</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f>E24/$B24</f>
         <v>0.1564584596725288</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1357,7 +1371,7 @@
         <v>343</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f>C25/$B25</f>
         <v>7.1757322175732219E-2</v>
       </c>
       <c r="E25">
@@ -1365,7 +1379,7 @@
         <v>883</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f>E25/$B25</f>
         <v>0.18472803347280334</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1384,7 +1398,7 @@
         <v>264</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f>C26/$B26</f>
         <v>7.083445130131473E-2</v>
       </c>
       <c r="E26">
@@ -1392,7 +1406,7 @@
         <v>611</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f>E26/$B26</f>
         <v>0.16393882479205796</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -1411,7 +1425,7 @@
         <v>207</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27/$B27</f>
         <v>6.0614934114202053E-2</v>
       </c>
       <c r="E27">
@@ -1419,7 +1433,7 @@
         <v>461</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f>E27/$B27</f>
         <v>0.1349926793557833</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1438,7 +1452,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f>C28/$B28</f>
         <v>6.9300069300069295E-2</v>
       </c>
       <c r="E28">
@@ -1446,7 +1460,7 @@
         <v>434</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f>E28/$B28</f>
         <v>0.15038115038115038</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -1465,7 +1479,7 @@
         <v>206</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f>C29/$B29</f>
         <v>7.4909090909090911E-2</v>
       </c>
       <c r="E29">
@@ -1473,7 +1487,7 @@
         <v>395</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f>E29/$B29</f>
         <v>0.14363636363636365</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -1492,7 +1506,7 @@
         <v>164</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f>C30/$B30</f>
         <v>8.5062240663900418E-2</v>
       </c>
       <c r="E30">
@@ -1500,7 +1514,7 @@
         <v>235</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f>E30/$B30</f>
         <v>0.12188796680497925</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -1519,7 +1533,7 @@
         <v>131</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f>C31/$B31</f>
         <v>6.8087318087318091E-2</v>
       </c>
       <c r="E31">
@@ -1527,7 +1541,7 @@
         <v>288</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f>E31/$B31</f>
         <v>0.1496881496881497</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -1546,7 +1560,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f>C32/$B32</f>
         <v>6.3209076175040513E-2</v>
       </c>
       <c r="E32">
@@ -1554,7 +1568,7 @@
         <v>173</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
+        <f>E32/$B32</f>
         <v>0.14019448946515398</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -1573,7 +1587,7 @@
         <v>98</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f>C33/$B33</f>
         <v>8.957952468007313E-2</v>
       </c>
       <c r="E33">
@@ -1581,7 +1595,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
+        <f>E33/$B33</f>
         <v>0.18372943327239488</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -1600,7 +1614,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f>C34/$B34</f>
         <v>0.10569105691056911</v>
       </c>
       <c r="E34">
@@ -1608,7 +1622,7 @@
         <v>130</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
+        <f>E34/$B34</f>
         <v>0.13211382113821138</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -1627,7 +1641,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>C35/$B35</f>
         <v>6.3716814159292035E-2</v>
       </c>
       <c r="E35">
@@ -1635,7 +1649,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f>E35/$B35</f>
         <v>0.13451327433628318</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -1654,7 +1668,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f>C36/$B36</f>
         <v>7.0921985815602842E-2</v>
       </c>
       <c r="E36">
@@ -1662,7 +1676,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
+        <f>E36/$B36</f>
         <v>9.2198581560283682E-2</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -1681,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f>C37/$B37</f>
         <v>0.12200956937799043</v>
       </c>
       <c r="E37">
@@ -1689,7 +1703,7 @@
         <v>73</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f>E37/$B37</f>
         <v>0.17464114832535885</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -1708,7 +1722,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f>C38/$B38</f>
         <v>0.10275689223057644</v>
       </c>
       <c r="E38">
@@ -1716,7 +1730,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f>E38/$B38</f>
         <v>9.2731829573934832E-2</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -1735,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
+        <f>C39/$B39</f>
         <v>0.1</v>
       </c>
       <c r="E39">
@@ -1743,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f>E39/$B39</f>
         <v>8.461538461538462E-2</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -1762,7 +1776,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
+        <f>C40/$B40</f>
         <v>9.4786729857819899E-2</v>
       </c>
       <c r="E40">
@@ -1770,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f>E40/$B40</f>
         <v>0.15639810426540285</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -1778,7 +1792,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C39">
+  <sortState ref="A3:G40">
     <sortCondition descending="1" ref="B8"/>
   </sortState>
   <conditionalFormatting sqref="D1:E1 D41:E1048576 D2:D40">
